--- a/V8 Brennstoffzelle.xlsx
+++ b/V8 Brennstoffzelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\OneDrive\Desktop\Praktikum_V8-main\Praktikum_V8-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0313D88-B019-4B63-B1E6-E032C9AD5467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2BD56-0D5B-4A38-93E6-CCA08A2C182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{CA06828F-7A04-4951-9375-D88FA5586A3C}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{CA06828F-7A04-4951-9375-D88FA5586A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A272C7-AAA0-4E8E-A4B1-B65FB4FBBD39}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A34900-F44B-4824-9C84-834CCB7078D0}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
         <v>6.64</v>
       </c>
       <c r="C7">
-        <v>724</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
         <v>6.62</v>
       </c>
       <c r="C8">
-        <v>788</v>
+        <v>7.88</v>
       </c>
     </row>
   </sheetData>
@@ -941,9 +941,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,27 +1121,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6054B2AC-E2C4-4B86-B644-E1E51BEE4A55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C0E34C-7C24-431E-A07A-CF7F38F74EC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b81b5618-bf59-435f-9187-e64bc67bb09d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e3c826b7-672b-4600-8e8e-174eca676be5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1163,9 +1154,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C0E34C-7C24-431E-A07A-CF7F38F74EC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6054B2AC-E2C4-4B86-B644-E1E51BEE4A55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b81b5618-bf59-435f-9187-e64bc67bb09d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e3c826b7-672b-4600-8e8e-174eca676be5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/V8 Brennstoffzelle.xlsx
+++ b/V8 Brennstoffzelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schle\OneDrive\Desktop\Praktikum_V8-main\Praktikum_V8-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2BD56-0D5B-4A38-93E6-CCA08A2C182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607D898-88B0-407B-808F-46B4759C19E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{CA06828F-7A04-4951-9375-D88FA5586A3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA06828F-7A04-4951-9375-D88FA5586A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9079343-09A1-475B-B4B1-4A5453A3B922}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A34900-F44B-4824-9C84-834CCB7078D0}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,8 @@
         <v>6.64</v>
       </c>
       <c r="C7">
-        <v>7.24</v>
+        <f>724</f>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,7 +933,8 @@
         <v>6.62</v>
       </c>
       <c r="C8">
-        <v>7.88</v>
+        <f>788</f>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -941,12 +943,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,15 +1120,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C0E34C-7C24-431E-A07A-CF7F38F74EC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6054B2AC-E2C4-4B86-B644-E1E51BEE4A55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b81b5618-bf59-435f-9187-e64bc67bb09d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e3c826b7-672b-4600-8e8e-174eca676be5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1154,18 +1165,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6054B2AC-E2C4-4B86-B644-E1E51BEE4A55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C0E34C-7C24-431E-A07A-CF7F38F74EC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b81b5618-bf59-435f-9187-e64bc67bb09d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e3c826b7-672b-4600-8e8e-174eca676be5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>